--- a/dataset/lg/prarthana.xlsx
+++ b/dataset/lg/prarthana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>తొండము నేక దంతమును తోరపు బొజ్జయు వామ హస్తమున్
 మెండుగ మ్రోయు గజ్జెలును మెల్లని చూపులు మందహాసమున్
@@ -477,17 +474,17 @@
 యుండెడి పార్వతీ తనయ యోయి గణాధిప నీకు మ్రొక్కెదన్</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>[('తొం', 'U'), ('డ', '|'), ('ము', '|'), ('నే', 'U'), ('క', '|'), ('దం', 'U'), ('త', '|'), ('ము', '|'), ('ను', '|'), ('తో', 'U'), ('ర', '|'), ('పు', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('యు', '|'), ('వా', 'U'), ('మ', '|'), ('హ', 'U'), ('స్త', '|'), ('మున్', 'U'), ('మెం', 'U'), ('డు', '|'), ('గ', '|'), ('మ్రో', 'U'), ('యు', '|'), ('గ', 'U'), ('జ్జె', '|'), ('లు', '|'), ('ను', '|'), ('మె', 'U'), ('ల్ల', '|'), ('ని', '|'), ('చూ', 'U'), ('పు', '|'), ('లు', '|'), ('మం', 'U'), ('ద', '|'), ('హా', 'U'), ('స', '|'), ('మున్', 'U'), ('కొం', 'U'), ('డొ', '|'), ('క', '|'), ('గు', 'U'), ('జ్జు', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('కో', 'U'), ('రి', '|'), ('న', '|'), ('వి', 'U'), ('ద్య', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('నొ', 'U'), ('జ్జ', '|'), ('వై', 'U'), ('యుం', 'U'), ('డె', '|'), ('డి', '|'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('త', '|'), ('న', '|'), ('య', '|'), ('యో', 'U'), ('యి', '|'), ('గ', '|'), ('ణా', 'U'), ('ధి', '|'), ('ప', '|'), ('నీ', 'U'), ('కు', '|'), ('మ్రొ', 'U'), ('క్కె', '|'), ('దన్', 'U')]</t>
         </is>
